--- a/src/main/resources/data/init_data.xlsx
+++ b/src/main/resources/data/init_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonydonx/IdeaProjects/chatbot/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D8437D-8B84-8043-936C-1A772D680ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB927-B86F-E249-A27A-9A4F9F25660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,79 +20,1138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="364">
   <si>
     <t>Can I get more details about the course</t>
   </si>
   <si>
-    <t>Answer</t>
+    <t xml:space="preserve"> of cource.</t>
   </si>
   <si>
     <t>Please send me details about this course</t>
   </si>
   <si>
-    <t>Answer2</t>
+    <t>Modules of this course are ()</t>
   </si>
   <si>
     <t>Please tell me about course information</t>
   </si>
   <si>
-    <t>Answer3</t>
-  </si>
-  <si>
     <t>Is it possible to get more details about course</t>
   </si>
   <si>
-    <t>Answer4</t>
-  </si>
-  <si>
     <t>Please tell me few more information about course</t>
   </si>
   <si>
+    <t>cource details please</t>
+  </si>
+  <si>
+    <t>more datails about the course</t>
+  </si>
+  <si>
+    <t>i need to know more about the course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course details </t>
+  </si>
+  <si>
+    <t>tell me more about the course</t>
+  </si>
+  <si>
+    <t>whats more about the course</t>
+  </si>
+  <si>
+    <t>more info about the course</t>
+  </si>
+  <si>
+    <t>What are the modules of this course</t>
+  </si>
+  <si>
+    <t>entry_requirements</t>
+  </si>
+  <si>
     <t>What are the entry requirements</t>
   </si>
   <si>
+    <t>entry requirements for this cource are ()</t>
+  </si>
+  <si>
     <t>Can I know about the qualification to register for this course</t>
   </si>
   <si>
+    <t>you need to have () in O/L's and () in A/L's</t>
+  </si>
+  <si>
     <t>What qualifications do I need to have to join this course</t>
   </si>
   <si>
     <t>Tell me about entry requirements</t>
   </si>
   <si>
+    <t>about qulifications required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualifications </t>
+  </si>
+  <si>
+    <t>expecting qualifications</t>
+  </si>
+  <si>
+    <t>entry requirements</t>
+  </si>
+  <si>
+    <t>entry requrements please</t>
+  </si>
+  <si>
+    <t>necessary qualifications</t>
+  </si>
+  <si>
+    <t>qualifications needed to join this cource</t>
+  </si>
+  <si>
     <t>What about entry requirement for this course</t>
   </si>
   <si>
-    <t>course-details</t>
-  </si>
-  <si>
-    <t>entry-requirements</t>
-  </si>
-  <si>
-    <t>start</t>
+    <t>What are the entry requirements to enter the campus</t>
+  </si>
+  <si>
+    <t>cource_duration</t>
+  </si>
+  <si>
+    <t>What is the duration of this course</t>
+  </si>
+  <si>
+    <t>Its about () months</t>
+  </si>
+  <si>
+    <t>How long does this course extend</t>
+  </si>
+  <si>
+    <t>about () months</t>
+  </si>
+  <si>
+    <t>How many months does this course takes to complete</t>
+  </si>
+  <si>
+    <t>cource duration</t>
+  </si>
+  <si>
+    <t>how long is it</t>
+  </si>
+  <si>
+    <t>academic time period</t>
+  </si>
+  <si>
+    <t>how long will it take to complete this cource</t>
+  </si>
+  <si>
+    <t>When this course going to end</t>
+  </si>
+  <si>
+    <t>time taken to complete</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>For how many months does this course extends</t>
+  </si>
+  <si>
+    <t>lectures_qualifications</t>
+  </si>
+  <si>
+    <t>Do you have a well-qualified lectures panel</t>
+  </si>
+  <si>
+    <t>yes.of cource .please visit website for their details</t>
+  </si>
+  <si>
+    <t>What about lecture panels academic qualifications</t>
+  </si>
+  <si>
+    <t>yes.every lecture posseses  at least a master degree</t>
+  </si>
+  <si>
+    <t>you got qualified lectures</t>
+  </si>
+  <si>
+    <t>qualifications of academic staff</t>
+  </si>
+  <si>
+    <t>qualifications of lecture pannel</t>
+  </si>
+  <si>
+    <t>Do you have a well experienced lecture panel</t>
+  </si>
+  <si>
+    <t>academic staff qualifications</t>
+  </si>
+  <si>
+    <t>lectures qualifications</t>
+  </si>
+  <si>
+    <t>What about the lecture panel qualifications</t>
+  </si>
+  <si>
+    <t>Can I get information about lectures qualifications</t>
+  </si>
+  <si>
+    <t>Is your lectures qulified</t>
+  </si>
+  <si>
+    <t>course_fee</t>
+  </si>
+  <si>
+    <t>How much does this course cost</t>
+  </si>
+  <si>
+    <t>Its about ()</t>
+  </si>
+  <si>
+    <t>What about the course fee</t>
+  </si>
+  <si>
+    <t>its only ()</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cost to me</t>
+  </si>
+  <si>
+    <t>how much is it</t>
+  </si>
+  <si>
+    <t>total  payment</t>
+  </si>
+  <si>
+    <t>cource fee</t>
+  </si>
+  <si>
+    <t>How much is the course fee</t>
+  </si>
+  <si>
+    <t>What about the cost</t>
+  </si>
+  <si>
+    <t>How much is this cost to me</t>
+  </si>
+  <si>
+    <t>What is the course price</t>
+  </si>
+  <si>
+    <t>cource_recognition</t>
+  </si>
+  <si>
+    <t>Is this recognized by ugc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes.our courses are well recognized locally and intenationally </t>
+  </si>
+  <si>
+    <t>Is this a ugc approved degree</t>
+  </si>
+  <si>
+    <t>All our courses are UGC recognized</t>
+  </si>
+  <si>
+    <t>recognition</t>
+  </si>
+  <si>
+    <t>what about ugc approval</t>
+  </si>
+  <si>
+    <t>approved by ugc</t>
+  </si>
+  <si>
+    <t>international recognition</t>
+  </si>
+  <si>
+    <t>What about recognition of the course</t>
+  </si>
+  <si>
+    <t>Is this course recognized internationally</t>
+  </si>
+  <si>
+    <t>Who recognizes this course</t>
+  </si>
+  <si>
+    <t>course_fee_discounts</t>
+  </si>
+  <si>
+    <t>How can I get a discount</t>
+  </si>
+  <si>
+    <t>please let me check.you can get about () discount</t>
+  </si>
+  <si>
+    <t>Are there any ongoing promotions</t>
+  </si>
+  <si>
+    <t>roughly about ()</t>
+  </si>
+  <si>
+    <t>How much can I save if registered early</t>
+  </si>
+  <si>
+    <t>any promotions</t>
+  </si>
+  <si>
+    <t>What about discounts</t>
+  </si>
+  <si>
+    <t>available offers</t>
+  </si>
+  <si>
+    <t>any offers</t>
+  </si>
+  <si>
+    <t>Any discounts</t>
+  </si>
+  <si>
+    <t>Are there any discounts for the courses</t>
+  </si>
+  <si>
+    <t>Is there any discounts for the card payments</t>
+  </si>
+  <si>
+    <t>course_start_end</t>
+  </si>
+  <si>
+    <t>When this course going to start and end</t>
+  </si>
+  <si>
+    <t>sorry,we will inform you later</t>
+  </si>
+  <si>
+    <t>Can I get details about course schedule</t>
+  </si>
+  <si>
+    <t>sorry, still schedule is not available</t>
+  </si>
+  <si>
+    <t>starting and ending dates</t>
+  </si>
+  <si>
+    <t>Can I know the starting date and ending date</t>
+  </si>
+  <si>
+    <t>so starting date</t>
+  </si>
+  <si>
+    <t>cource schedule</t>
+  </si>
+  <si>
+    <t>What is the time schedule for this course</t>
+  </si>
+  <si>
+    <t>starting date</t>
+  </si>
+  <si>
+    <t>Please tell me about course schedule</t>
+  </si>
+  <si>
+    <t>How should i plan my course shedule</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>What are the payment methods to pay for the course</t>
+  </si>
+  <si>
+    <t>We have below payment methods()</t>
+  </si>
+  <si>
+    <t>Can i pay for the courses through the bank card</t>
+  </si>
+  <si>
+    <t>payment methods available in web site</t>
+  </si>
+  <si>
+    <t>available payment methods</t>
+  </si>
+  <si>
+    <t>how to make payments</t>
+  </si>
+  <si>
+    <t>paying details</t>
+  </si>
+  <si>
+    <t>so you do only cash</t>
+  </si>
+  <si>
+    <t>payment methods</t>
+  </si>
+  <si>
+    <t>how to pay</t>
+  </si>
+  <si>
+    <t>Can i pay for the courses through the bank</t>
+  </si>
+  <si>
+    <t>Is it possible to pay course fee through the online banking</t>
+  </si>
+  <si>
+    <t>payment_in_installments</t>
+  </si>
+  <si>
+    <t>Can I pay course fee in installments</t>
+  </si>
+  <si>
+    <t>yes.you can pay monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is there a monthly installment paying plan</t>
+  </si>
+  <si>
+    <t>dont worry .installment plans are available</t>
+  </si>
+  <si>
+    <t>monthly payment plans availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is it possible to pay course fee monthly</t>
+  </si>
+  <si>
+    <t>any monthly installment plan</t>
+  </si>
+  <si>
+    <t>making paymets in installments</t>
+  </si>
+  <si>
+    <t>monthly payment availability</t>
+  </si>
+  <si>
+    <t>paying in monthly installments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can I go for a monthly installment plan</t>
+  </si>
+  <si>
+    <t>Is there any installments plan available</t>
+  </si>
+  <si>
+    <t>more_course_info</t>
+  </si>
+  <si>
+    <t>Where can I find more details about the course</t>
+  </si>
+  <si>
+    <t>please visit our web site  www.XXXXXX</t>
+  </si>
+  <si>
+    <t>Can I get more information from your website</t>
+  </si>
+  <si>
+    <t>you can visit our web site for more details www.XXXX</t>
+  </si>
+  <si>
+    <t>more details about the courses</t>
+  </si>
+  <si>
+    <t>need more details</t>
+  </si>
+  <si>
+    <t>more course details</t>
+  </si>
+  <si>
+    <t>more course info</t>
+  </si>
+  <si>
+    <t>need more course details</t>
+  </si>
+  <si>
+    <t>Is there any other sources to get more information</t>
+  </si>
+  <si>
+    <t>Where to find more details about course</t>
+  </si>
+  <si>
+    <t>Where to search for more details</t>
+  </si>
+  <si>
+    <t>How can i find more details about the course</t>
+  </si>
+  <si>
+    <t>branch_location</t>
+  </si>
+  <si>
+    <t>where is your branch located</t>
+  </si>
+  <si>
+    <t>our branch is located in negombo road kurunegala</t>
+  </si>
+  <si>
+    <t>can i get your branch adress</t>
+  </si>
+  <si>
+    <t>negambo road kurunegala near XXXXX</t>
+  </si>
+  <si>
+    <t>can i get your branch location details</t>
+  </si>
+  <si>
+    <t>where is esoft metro campus located</t>
+  </si>
+  <si>
+    <t>can i get the location details</t>
+  </si>
+  <si>
+    <t>Can you help me to find your campus location</t>
+  </si>
+  <si>
+    <t>Can you give me a direction to your campus</t>
+  </si>
+  <si>
+    <t>Where can i find your campus</t>
+  </si>
+  <si>
+    <t>cource_coordinator_details</t>
+  </si>
+  <si>
+    <t>can i get the contact details of course codinator</t>
+  </si>
+  <si>
+    <t>his phone no is XXXXX</t>
+  </si>
+  <si>
+    <t>how to contact course coodinator</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>please send me course coodinators phone number</t>
+  </si>
+  <si>
+    <t>i will SMS it to you</t>
+  </si>
+  <si>
+    <t>course cordinator phone number</t>
+  </si>
+  <si>
+    <t>send me the course cordinator phone number</t>
+  </si>
+  <si>
+    <t>send me the phone number of course cordinator</t>
+  </si>
+  <si>
+    <t>need contact details of course cordinator</t>
+  </si>
+  <si>
+    <t>phone number of course coordinator</t>
+  </si>
+  <si>
+    <t>can i get cource coodinators contact details</t>
+  </si>
+  <si>
+    <t>cource coodinators phone number please</t>
+  </si>
+  <si>
+    <t>apply_for_student_loan</t>
+  </si>
+  <si>
+    <t>can i get a student loan for this course</t>
+  </si>
+  <si>
+    <t>yes.you need to contact a bank</t>
+  </si>
+  <si>
+    <t>are there any loan facilities available</t>
+  </si>
+  <si>
+    <t>ok cource.</t>
+  </si>
+  <si>
+    <t>Is it possible to apply for a student loan</t>
+  </si>
+  <si>
+    <t>yes.you need to talk with a bank</t>
+  </si>
+  <si>
+    <t>student loans available for this course</t>
+  </si>
+  <si>
+    <t>you arrange student loans</t>
+  </si>
+  <si>
+    <t>what about financial support</t>
+  </si>
+  <si>
+    <t>loans available</t>
+  </si>
+  <si>
+    <t>any financial support available</t>
+  </si>
+  <si>
+    <t>is there any financial support i can  get</t>
+  </si>
+  <si>
+    <t>what about a student loan</t>
+  </si>
+  <si>
+    <t>registration_fee</t>
+  </si>
+  <si>
+    <t>How much is the registration fee for this course</t>
+  </si>
+  <si>
+    <t>registration fee for this course is ()</t>
+  </si>
+  <si>
+    <t>What about the registration fee</t>
+  </si>
+  <si>
+    <t>how much to register</t>
+  </si>
+  <si>
+    <t>what about registration payment</t>
+  </si>
+  <si>
+    <t>how much needed for registration</t>
+  </si>
+  <si>
+    <t>initial registration fee</t>
+  </si>
+  <si>
+    <t>How much is the registration fee</t>
+  </si>
+  <si>
+    <t>how about registration fee</t>
+  </si>
+  <si>
+    <t>cost to register</t>
+  </si>
+  <si>
+    <t>registration payment</t>
+  </si>
+  <si>
+    <t>registration fee</t>
+  </si>
+  <si>
+    <t>How much do i need to pay for the registration</t>
+  </si>
+  <si>
+    <t>registration_start</t>
+  </si>
+  <si>
+    <t>when  registration is going to start</t>
+  </si>
+  <si>
+    <t>i will inform you later</t>
+  </si>
+  <si>
+    <t>so when it is going to start</t>
+  </si>
+  <si>
+    <t>sorry ,still not decided</t>
+  </si>
+  <si>
+    <t>can i get the registration starting date</t>
+  </si>
+  <si>
+    <t>when is registration</t>
+  </si>
+  <si>
+    <t>when is registration sceduled</t>
+  </si>
+  <si>
+    <t>Registration start</t>
+  </si>
+  <si>
+    <t>details about registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registration start dates </t>
+  </si>
+  <si>
+    <t>registration start dates please</t>
+  </si>
+  <si>
+    <t>when this going to start</t>
+  </si>
+  <si>
+    <t>exam_dates</t>
+  </si>
+  <si>
+    <t>when is exams going to be</t>
+  </si>
+  <si>
+    <t>sorry,they are not yet decided</t>
+  </si>
+  <si>
+    <t>when is our exams</t>
+  </si>
+  <si>
+    <t>please contact the academic coodinator</t>
+  </si>
+  <si>
+    <t>exam dates please</t>
+  </si>
+  <si>
+    <t>when is exams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what about exams </t>
+  </si>
+  <si>
+    <t>when exams going to start</t>
+  </si>
+  <si>
+    <t>exam dates</t>
+  </si>
+  <si>
+    <t>when exams starting</t>
+  </si>
+  <si>
+    <t>what about exams dates</t>
+  </si>
+  <si>
+    <t>can you please tell me about examination timetable</t>
+  </si>
+  <si>
+    <t>When can i take exams</t>
+  </si>
+  <si>
+    <t>100%_online</t>
+  </si>
+  <si>
+    <t>is this cource fully available online</t>
+  </si>
+  <si>
+    <t>yes,there is a online batch and a physical batch</t>
+  </si>
+  <si>
+    <t>can i complete this by attending only online lectures</t>
+  </si>
+  <si>
+    <t>yes you can study this full time online</t>
+  </si>
+  <si>
+    <t>is it possible to complete this cource by only online lectures</t>
+  </si>
+  <si>
+    <t>We have our online E-learning system</t>
+  </si>
+  <si>
+    <t>online lectures availability</t>
+  </si>
+  <si>
+    <t>online teacing available</t>
+  </si>
+  <si>
+    <t>is there a fully online batch</t>
+  </si>
+  <si>
+    <t>i prefer online learning</t>
+  </si>
+  <si>
+    <t>can i attend online lectures</t>
+  </si>
+  <si>
+    <t>What are the online learning platforms you have</t>
+  </si>
+  <si>
+    <t>Do your campus have the online classes</t>
+  </si>
+  <si>
+    <t>Are there online classes</t>
+  </si>
+  <si>
+    <t>IT_cources_availability</t>
+  </si>
+  <si>
+    <t>what are the IT courses available in your institute</t>
+  </si>
+  <si>
+    <t>of cource,there are many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you have any IT courses  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>yes.IT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cources are available in our institute</t>
+    </r>
+  </si>
+  <si>
+    <t>is there any IT courses available in your institute</t>
+  </si>
+  <si>
+    <t>it courses</t>
+  </si>
+  <si>
+    <t>you do it couses</t>
+  </si>
+  <si>
+    <t>what about it courses</t>
+  </si>
+  <si>
+    <t>you  have it courses</t>
+  </si>
+  <si>
+    <t>do you have courses in IT field</t>
+  </si>
+  <si>
+    <t>it courses availability</t>
+  </si>
+  <si>
+    <t>is there any IT course available</t>
+  </si>
+  <si>
+    <t>IT_courselist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can I get the details of  IT  courses available in your institute </t>
+  </si>
+  <si>
+    <t>of course,heres the list ()</t>
+  </si>
+  <si>
+    <t>please send me a list of IT courses available</t>
+  </si>
+  <si>
+    <t>these are the available cources ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would like to know about all the IT courses available in your institute </t>
+  </si>
+  <si>
+    <t>list of it courses</t>
+  </si>
+  <si>
+    <t>it courses available</t>
+  </si>
+  <si>
+    <t>available it courses</t>
+  </si>
+  <si>
+    <t>it course list</t>
+  </si>
+  <si>
+    <t>so you got many it courses</t>
+  </si>
+  <si>
+    <t>what are the IT courses available in Esoft</t>
+  </si>
+  <si>
+    <t>can you tell me about available IT courses</t>
+  </si>
+  <si>
+    <t>BM_courses_availability</t>
+  </si>
+  <si>
+    <t>what are the business management  courses available in your institute</t>
+  </si>
+  <si>
+    <t>do you have any business management  courses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>yes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>business management cources are available in our institute</t>
+    </r>
+  </si>
+  <si>
+    <t>is there any  business management courses available in your institute</t>
+  </si>
+  <si>
+    <t>what about bm courses</t>
+  </si>
+  <si>
+    <t>bm courses availability</t>
+  </si>
+  <si>
+    <t>you got bm cources</t>
+  </si>
+  <si>
+    <t>bm couses</t>
+  </si>
+  <si>
+    <t>you have bm courses</t>
+  </si>
+  <si>
+    <t>do you have courses in Business management field</t>
+  </si>
+  <si>
+    <t>is there any  business management course available</t>
+  </si>
+  <si>
+    <t>bm_course_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can I get the details of  bm  courses available in your institute </t>
+  </si>
+  <si>
+    <t>please send me a list of bm courses available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i would like to know about all the bm courses available in your institute </t>
+  </si>
+  <si>
+    <t>list of bm courses</t>
+  </si>
+  <si>
+    <t>bm courses available</t>
+  </si>
+  <si>
+    <t>available bm courses</t>
+  </si>
+  <si>
+    <t>bm course list</t>
+  </si>
+  <si>
+    <t>so you got many bm courses</t>
+  </si>
+  <si>
+    <t>what are the bm courses available in Esoft</t>
+  </si>
+  <si>
+    <t>can you tell me about available bm courses</t>
+  </si>
+  <si>
+    <t>english_courses_availability</t>
+  </si>
+  <si>
+    <t>please send me details about english cources available in your institute</t>
+  </si>
+  <si>
+    <t>of cource,there are many courses to choose from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you have any english courses </t>
+  </si>
+  <si>
+    <t>yes.english cources are available in our institute</t>
+  </si>
+  <si>
+    <t>english courses</t>
+  </si>
+  <si>
+    <t>available english courses</t>
+  </si>
+  <si>
+    <t>what about english courses</t>
+  </si>
+  <si>
+    <t>english courses available</t>
+  </si>
+  <si>
+    <t>you got english courses</t>
+  </si>
+  <si>
+    <t>are there any english cources available in esoft</t>
+  </si>
+  <si>
+    <t>what are the available english courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are there any english courses </t>
+  </si>
+  <si>
+    <t>greeting</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>good morning</t>
   </si>
   <si>
     <t>Hi</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Are you there?</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>Can I join?</t>
+    <t xml:space="preserve">good evening </t>
+  </si>
+  <si>
+    <t>hello,what are you looking for</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>Yes i'm here</t>
+  </si>
+  <si>
+    <t>good afternoon</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>hey dude</t>
+  </si>
+  <si>
+    <t>hey buddy</t>
+  </si>
+  <si>
+    <t>Are you there</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>thanks_reply</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>you are Welcome</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>It's my pleasure</t>
+  </si>
+  <si>
+    <t>many thanks</t>
+  </si>
+  <si>
+    <t>Anything for you</t>
+  </si>
+  <si>
+    <t>thanks a lot</t>
+  </si>
+  <si>
+    <t>I'm happy to be of service</t>
+  </si>
+  <si>
+    <t>thanks so much</t>
+  </si>
+  <si>
+    <t>Happy i could be of help</t>
+  </si>
+  <si>
+    <t>thanks a million</t>
+  </si>
+  <si>
+    <t>i really appreciate your help</t>
+  </si>
+  <si>
+    <t>you are the best</t>
+  </si>
+  <si>
+    <t>all my love and thanks to you</t>
+  </si>
+  <si>
+    <t>i am really gratefull for your help</t>
+  </si>
+  <si>
+    <t>Thanks for having my back</t>
+  </si>
+  <si>
+    <t>Please accept my deepest gratitude</t>
+  </si>
+  <si>
+    <t>Thanks for your hard work on this</t>
+  </si>
+  <si>
+    <t>I couldn't have done it without you</t>
+  </si>
+  <si>
+    <t>how_are_you</t>
+  </si>
+  <si>
+    <t>how are you</t>
+  </si>
+  <si>
+    <t>how are you doing</t>
+  </si>
+  <si>
+    <t>how do you do</t>
+  </si>
+  <si>
+    <t>I am doing well. what do you want to know</t>
+  </si>
+  <si>
+    <t>howdy</t>
+  </si>
+  <si>
+    <t>Thanks for asking i'm doing well</t>
+  </si>
+  <si>
+    <t>how is things going</t>
+  </si>
+  <si>
+    <t>i am fine,what do you want to know</t>
+  </si>
+  <si>
+    <t>How's everything</t>
+  </si>
+  <si>
+    <t>What's up</t>
+  </si>
+  <si>
+    <t>how is it going</t>
+  </si>
+  <si>
+    <t>How are things</t>
+  </si>
+  <si>
+    <t>What's new</t>
+  </si>
+  <si>
+    <t>You allright</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>What's happening</t>
+  </si>
+  <si>
+    <t>course_details</t>
+  </si>
+  <si>
+    <t>How are you doing?</t>
+  </si>
+  <si>
+    <t>Hello wolcome to CODEGEEK</t>
+  </si>
+  <si>
+    <t>Welcome to CODEGEEK, How can I help you</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -105,13 +1164,58 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7A7C84"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,11 +1245,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,21 +1478,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -401,95 +1516,1730 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B47" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B57" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B60" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B77" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B79" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B82" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B83" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B84" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B85" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B86" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B87" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B88" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B89" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B101" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B102" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B103" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B104" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B105" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B106" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B107" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B108" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B109" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B111" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B112" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B113" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B114" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B115" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B116" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B117" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B118" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B119" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B120" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B123" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B124" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B125" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B126" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B127" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B128" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B131" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B132" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B134" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B135" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B136" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B137" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B138" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B140" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B142" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B143" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B145" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B146" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B147" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B148" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B162" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B163" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B164" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B165" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B166" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B167" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B168" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B169" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B170" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B171" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B173" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B174" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B175" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B176" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B177" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B178" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B179" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B180" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B181" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B182" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B183" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A184" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B185" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B186" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B187" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B188" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B189" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B190" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B191" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B192" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B193" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B194" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B196" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B197" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B198" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B199" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B200" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B201" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B202" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B203" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B204" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B206" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B207" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B208" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B209" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B210" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B211" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B212" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B213" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B214" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A215" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B216" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B217" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B218" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B219" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B220" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B221" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B222" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B223" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B224" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B226" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B227" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B228" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B229" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B230" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B231" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B232" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B233" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B234" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A235" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B236" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B237" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B238" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B239" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B240" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B241" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B242" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B243" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B244" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A245" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B246" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B247" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B248" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B249" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B250" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B251" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B252" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B253" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B254" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A255" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B256" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B257" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B258" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B259" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B260" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B261" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B262" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B263" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B264" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B265" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B266" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B267" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B268" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A269" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B270" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B271" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B272" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B273" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B274" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B275" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B276" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B277" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B278" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B279" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B280" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B281" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C196" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C216" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/init_data.xlsx
+++ b/src/main/resources/data/init_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonydonx/IdeaProjects/chatbot/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCDB927-B86F-E249-A27A-9A4F9F25660C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB642F2-B97D-314C-9BBF-04F8CCE4C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="367">
   <si>
     <t>Can I get more details about the course</t>
   </si>
@@ -715,19 +715,10 @@
     <t>When can i take exams</t>
   </si>
   <si>
-    <t>100%_online</t>
-  </si>
-  <si>
     <t>is this cource fully available online</t>
   </si>
   <si>
-    <t>yes,there is a online batch and a physical batch</t>
-  </si>
-  <si>
     <t>can i complete this by attending only online lectures</t>
-  </si>
-  <si>
-    <t>yes you can study this full time online</t>
   </si>
   <si>
     <t>is it possible to complete this cource by only online lectures</t>
@@ -991,27 +982,15 @@
     <t>good morning</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
     <t xml:space="preserve">good evening </t>
   </si>
   <si>
-    <t>hello,what are you looking for</t>
-  </si>
-  <si>
     <t>hey</t>
   </si>
   <si>
-    <t>Yes i'm here</t>
-  </si>
-  <si>
     <t>good afternoon</t>
   </si>
   <si>
-    <t>Hey</t>
-  </si>
-  <si>
     <t>hey dude</t>
   </si>
   <si>
@@ -1144,7 +1123,37 @@
     <t>Hello wolcome to CODEGEEK</t>
   </si>
   <si>
-    <t>Welcome to CODEGEEK, How can I help you</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Yes,there is a online batch and a physical batch</t>
+  </si>
+  <si>
+    <t>Yes you can study this full time online</t>
+  </si>
+  <si>
+    <t>Welcome to CODEGEEK, How can I help you?</t>
+  </si>
+  <si>
+    <t>Hello,what are you looking for</t>
+  </si>
+  <si>
+    <t>Yes i'm here. How can I help you?</t>
+  </si>
+  <si>
+    <t>Hi, Welcome to CODEGEEK</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>student loan</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>loan</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1487,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1493,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2384,862 +2393,885 @@
     </row>
     <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B145" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B146" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B147" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B148" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B149" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B150" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B151" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
       <c r="B155" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
       <c r="B156" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
       <c r="B157" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
       <c r="B158" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B162" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B163" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B164" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B165" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B166" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B167" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B168" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B169" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B170" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B171" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="B172" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B173" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B174" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="B175" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B176" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B177" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B178" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B179" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B180" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B181" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B182" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A184" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="B184" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B185" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B186" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="B187" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C187" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B188" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C188" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B189" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B190" s="2" t="s">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B191" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B192" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B193" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B194" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="B195" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B196" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B197" s="2" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B198" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="B199" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B200" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B201" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B202" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B203" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A205" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="B205" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B206" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B207" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B208" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="B209" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B210" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B211" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B212" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B213" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A215" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>248</v>
+      <c r="B215" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B216" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>275</v>
+      <c r="B216" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B217" s="7" t="s">
-        <v>276</v>
+      <c r="B217" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B218" s="7" t="s">
-        <v>277</v>
+      <c r="B218" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A219" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="B219" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B220" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B221" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B222" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B223" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B224" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A225" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>261</v>
+      <c r="B225" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B226" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>263</v>
+      <c r="B226" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B227" s="2" t="s">
-        <v>287</v>
+      <c r="B227" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B228" s="2" t="s">
-        <v>288</v>
+      <c r="B228" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A229" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="B229" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B230" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B231" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B232" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B233" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B234" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A235" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="B235" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B236" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B237" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C237" s="2"/>
+        <v>290</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B238" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C238" s="2"/>
+        <v>291</v>
+      </c>
     </row>
     <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A239" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="B239" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C239" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B240" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B241" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B242" s="2" t="s">
-        <v>305</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B243" s="2" t="s">
-        <v>306</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B244" s="2" t="s">
-        <v>307</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="B245" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B246" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B247" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B248" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A249" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="B249" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B250" s="9" t="s">
-        <v>317</v>
+      <c r="B250" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B251" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B252" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B253" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B254" s="2" t="s">
-        <v>322</v>
+      <c r="B254" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A255" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="B255" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B256" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B257" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B258" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A259" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="B259" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B260" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B261" s="2" t="s">
-        <v>335</v>
+        <v>321</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B262" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B263" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B264" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B265" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B266" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B267" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B268" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A269" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="B269" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B270" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B271" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B272" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A273" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B274" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B275" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B276" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B277" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B278" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B279" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B280" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B281" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C272" s="2" t="s">
+    </row>
+    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B282" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B273" s="2" t="s">
+    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B283" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C273" s="2" t="s">
+    </row>
+    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B284" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B274" s="2" t="s">
+    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B285" s="2" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B275" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B276" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B277" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B278" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B279" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B280" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B281" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C196" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C216" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C200" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C220" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/init_data.xlsx
+++ b/src/main/resources/data/init_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonydonx/IdeaProjects/chatbot/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB642F2-B97D-314C-9BBF-04F8CCE4C146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A540B79-A53F-7A4C-A0A0-14C619F41B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="373">
   <si>
     <t>Can I get more details about the course</t>
   </si>
@@ -115,9 +115,6 @@
     <t>What are the entry requirements to enter the campus</t>
   </si>
   <si>
-    <t>cource_duration</t>
-  </si>
-  <si>
     <t>What is the duration of this course</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>What is the course price</t>
-  </si>
-  <si>
-    <t>cource_recognition</t>
   </si>
   <si>
     <t>Is this recognized by ugc</t>
@@ -1154,6 +1148,30 @@
   </si>
   <si>
     <t>loan</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>all courses</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>course_recognition</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1505,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C285"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1502,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1585,1691 +1603,1729 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B44" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="B61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B64" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B62" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B64" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B76" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="5" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B77" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B78" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B79" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B82" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B83" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B84" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B87" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B88" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B89" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B90" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B91" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B92" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B93" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B94" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B95" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B96" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A91" s="2"/>
-      <c r="B91" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="2"/>
-      <c r="B92" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="2"/>
-      <c r="B93" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="2"/>
-      <c r="B94" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="2"/>
-      <c r="B95" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="2"/>
-      <c r="B96" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="2"/>
-      <c r="B97" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
       <c r="B98" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
       <c r="B99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="2"/>
+      <c r="B100" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="2"/>
+      <c r="B102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="2"/>
+      <c r="B103" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="2"/>
+      <c r="B104" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="2"/>
+      <c r="B105" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B101" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B102" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B103" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B104" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B105" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B106" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="B107" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B108" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B109" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="B110" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B111" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B112" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B113" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B114" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B115" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B116" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B117" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B118" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B119" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B120" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B121" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B122" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B123" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B124" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B125" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B126" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B127" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B121" s="2" t="s">
+    </row>
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B129" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B122" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B123" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B124" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B125" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B126" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B127" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B128" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B131" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B132" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C132" s="2"/>
+        <v>156</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B133" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C133" s="2"/>
+        <v>157</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B134" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="2"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B135" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C135" s="2"/>
+        <v>159</v>
+      </c>
     </row>
     <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="B136" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B138" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="B139" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B140" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B142" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B143" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C144" s="2"/>
+        <v>172</v>
+      </c>
     </row>
     <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B145" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C145" s="2"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B146" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C146" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B147" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C147" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B148" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C148" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B149" s="2" t="s">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B150" s="2" t="s">
-        <v>364</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B152" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B153" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B154" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B155" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B156" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B157" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B158" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
       <c r="B160" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
       <c r="B161" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
       <c r="B162" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
       <c r="B163" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A164" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B165" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B166" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B167" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B168" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B169" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B170" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B171" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B172" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C172" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B173" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B174" s="2" t="s">
-        <v>216</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="B175" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B176" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B177" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B178" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B179" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B183" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B184" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B185" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B186" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="B187" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>357</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B188" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>358</v>
+        <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B189" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B190" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C190" s="2"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B191" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C191" s="2"/>
+        <v>226</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B192" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B193" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A194" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="B194" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B195" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B196" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B197" s="2" t="s">
-        <v>363</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B198" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A199" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="B199" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B200" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B201" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B202" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B203" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B204" s="2" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B205" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="B206" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B207" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B208" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A209" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="B209" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B210" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B211" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B212" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B213" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B214" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B215" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A216" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B216" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B217" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B218" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B219" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B220" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B221" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B222" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B223" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B224" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B225" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A226" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B226" s="7" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A219" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B220" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B221" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B222" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B223" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B224" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B225" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B226" s="7" t="s">
-        <v>278</v>
+      <c r="C226" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B227" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B228" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B229" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B230" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B231" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B232" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B233" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B234" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B235" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A229" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B230" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B231" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B232" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B233" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B234" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B235" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B236" s="2" t="s">
-        <v>289</v>
+      <c r="C236" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B237" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B238" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A239" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="B239" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B240" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B241" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C241" s="2"/>
+        <v>285</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B242" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C242" s="2"/>
+        <v>286</v>
+      </c>
     </row>
     <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B243" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C243" s="2"/>
+        <v>287</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B244" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C244" s="2"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B245" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C245" s="2"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A246" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="B246" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B247" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B248" s="2" t="s">
-        <v>304</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A249" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="B249" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B250" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>359</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B251" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B252" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>360</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B253" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B254" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>355</v>
+      <c r="B254" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B255" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A256" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="B256" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B257" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B258" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A259" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="B259" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B260" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B261" s="2" t="s">
-        <v>321</v>
+      <c r="B261" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B262" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B263" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B264" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B265" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A266" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="B266" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B267" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B268" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B269" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B270" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B271" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B272" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A273" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="B273" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B274" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B275" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B276" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B277" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B278" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B279" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A280" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="B280" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B281" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B282" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B283" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B284" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B285" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B286" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B287" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B288" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="B289" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="B290" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="B291" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="B292" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C200" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C220" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C207" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C227" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
